--- a/data/Hourly_Consumption_on_Peak_Day.xlsx
+++ b/data/Hourly_Consumption_on_Peak_Day.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myenbw-my.sharepoint.com/personal/g_lustikabawole_netze-bw_de/Documents/Eigene_Dokumente/WAREM/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B2D36049-096E-43F6-AD93-FB4EC8CB4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E6C4CF4-B749-4C42-95C3-7AAA4F40AE94}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01026B3A-F2C1-442E-877F-9D829B7F7902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE40729C-5E68-4401-8AA1-8F13DBF8BFDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{FE40729C-5E68-4401-8AA1-8F13DBF8BFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Outflow</t>
+    <t>data</t>
   </si>
   <si>
-    <t>Inflow</t>
+    <t>outflow</t>
   </si>
   <si>
-    <t>Hour</t>
+    <t>inflow</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,23 +399,23 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,7 +426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -437,7 +437,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -459,7 +459,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -481,7 +481,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -503,7 +503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -525,7 +525,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -536,7 +536,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -547,7 +547,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -558,7 +558,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -569,7 +569,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -580,7 +580,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -591,7 +591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -602,7 +602,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -613,7 +613,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -624,7 +624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -635,7 +635,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -646,7 +646,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -657,7 +657,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -668,7 +668,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -679,7 +679,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -690,7 +690,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3</v>
       </c>
@@ -712,7 +712,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>5</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6</v>
       </c>
@@ -745,7 +745,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>7</v>
       </c>
@@ -756,7 +756,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -767,7 +767,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9</v>
       </c>
@@ -778,7 +778,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10</v>
       </c>
@@ -789,7 +789,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11</v>
       </c>
@@ -800,7 +800,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
@@ -811,7 +811,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>13</v>
       </c>
@@ -822,7 +822,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>14</v>
       </c>
@@ -833,7 +833,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>15</v>
       </c>
@@ -844,7 +844,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16</v>
       </c>
@@ -855,7 +855,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>17</v>
       </c>
@@ -866,7 +866,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>18</v>
       </c>
@@ -877,7 +877,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>19</v>
       </c>
@@ -888,7 +888,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>20</v>
       </c>
@@ -899,7 +899,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>21</v>
       </c>
@@ -910,7 +910,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>22</v>
       </c>
@@ -921,7 +921,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>23</v>
       </c>
@@ -932,7 +932,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>24</v>
       </c>
@@ -943,7 +943,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -954,7 +954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>4</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>5</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>9</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>11</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>12</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>13</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>14</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>15</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>16</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>17</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>18</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>19</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>20</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>21</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>22</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>23</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>24</v>
       </c>
